--- a/September9AMProject/src/test/resources/SuiteA.xlsx
+++ b/September9AMProject/src/test/resources/SuiteA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="53">
   <si>
     <t>TCID</t>
   </si>
@@ -154,9 +154,6 @@
   </si>
   <si>
     <t>CustomerName</t>
-  </si>
-  <si>
-    <t>zohourl</t>
   </si>
   <si>
     <t/>
@@ -749,7 +746,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -766,7 +763,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -786,7 +783,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -806,7 +803,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -826,7 +823,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -846,27 +843,27 @@
         <v>18</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -888,7 +885,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -905,7 +902,7 @@
         <v>24</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -922,21 +919,21 @@
         <v>24</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -952,7 +949,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1006,9 +1003,7 @@
       <c r="C3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>46</v>
-      </c>
+      <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5">
@@ -1022,7 +1017,7 @@
         <v>31</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="11"/>
     </row>
@@ -1037,7 +1032,7 @@
         <v>32</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>45</v>
@@ -1054,7 +1049,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" s="11"/>
     </row>
@@ -1069,7 +1064,7 @@
         <v>32</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>44</v>
@@ -1086,7 +1081,7 @@
         <v>31</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" s="11"/>
     </row>
@@ -1145,7 +1140,7 @@
         <v>31</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" s="13"/>
     </row>
@@ -1161,9 +1156,6 @@
       <c r="E14" s="13"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="https://www.zoho.com/"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>